--- a/data/trans_dic/iP30KDA5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30KDA5_2023-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>83,19%</t>
+          <t>87,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>83,21%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>85,99%</t>
+          <t>85,48%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,49; 90,41</t>
+          <t>78,03; 93,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>80,76; 94,6</t>
+          <t>72,82; 90,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>79,29; 90,73</t>
+          <t>78,94; 90,23</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>84,93%</t>
+          <t>81,71%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>84,66%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>83,46%</t>
+          <t>83,28%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>80,28; 89,15</t>
+          <t>75,87; 86,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,76; 86,16</t>
+          <t>79,86; 88,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,21; 86,4</t>
+          <t>79,56; 86,37</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>80,78%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>81,17%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>81,83%</t>
+          <t>81,0%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>77,23; 86,63</t>
+          <t>73,88; 85,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,85; 86,26</t>
+          <t>75,35; 86,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,68; 85,29</t>
+          <t>76,98; 84,72</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>80,82%</t>
+          <t>78,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>80,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>79,15%</t>
+          <t>79,43%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>75,88; 84,95</t>
+          <t>73,24; 85,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,47; 82,11</t>
+          <t>75,24; 85,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,79; 82,39</t>
+          <t>75,46; 83,04</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>82,35%</t>
+          <t>80,58%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>80,39%</t>
+          <t>81,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>81,42%</t>
+          <t>81,2%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>79,76; 85,03</t>
+          <t>77,56; 83,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,58; 82,97</t>
+          <t>78,86; 84,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>79,5; 83,34</t>
+          <t>79,12; 83,24</t>
         </is>
       </c>
     </row>
